--- a/data/female_conditioning/virgin/rawresults_4-1_1-4_virgin_b4.xlsx
+++ b/data/female_conditioning/virgin/rawresults_4-1_1-4_virgin_b4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster3/data/female_conditioning/virgin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_4/data/female_conditioning/virgin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE582F-B09E-7A47-9B16-6A9781603F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C2418C-290A-354F-941F-5AA167DF0D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D01DD9ED-0707-5F4D-A7DC-C1CC913CB47D}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{D01DD9ED-0707-5F4D-A7DC-C1CC913CB47D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,15 +428,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B8BE95-3B4C-424F-B895-750E52DBC535}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="217" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,10 +451,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -731,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -931,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -951,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1071,10 +1071,10 @@
         <v>4</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1211,10 +1211,10 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1491,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -1511,10 +1511,10 @@
         <v>5</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1631,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1651,10 +1651,10 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1671,10 +1671,10 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -1691,10 +1691,10 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -1711,10 +1711,10 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -1771,10 +1771,10 @@
         <v>6</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>1</v>
